--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>56.05275600000001</v>
+        <v>162.139547</v>
       </c>
       <c r="H2">
-        <v>168.158268</v>
+        <v>486.418641</v>
       </c>
       <c r="I2">
-        <v>0.0661711278023414</v>
+        <v>0.1429713321294387</v>
       </c>
       <c r="J2">
-        <v>0.06617112780234141</v>
+        <v>0.1429713321294388</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>39.16036113530401</v>
+        <v>265.1543677212933</v>
       </c>
       <c r="R2">
-        <v>352.4432502177361</v>
+        <v>2386.38930949164</v>
       </c>
       <c r="S2">
-        <v>0.0006640936193257772</v>
+        <v>0.003836950683377941</v>
       </c>
       <c r="T2">
-        <v>0.0006640936193257773</v>
+        <v>0.003836950683377941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>56.05275600000001</v>
+        <v>162.139547</v>
       </c>
       <c r="H3">
-        <v>168.158268</v>
+        <v>486.418641</v>
       </c>
       <c r="I3">
-        <v>0.0661711278023414</v>
+        <v>0.1429713321294387</v>
       </c>
       <c r="J3">
-        <v>0.06617112780234141</v>
+        <v>0.1429713321294388</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>2573.738729014932</v>
+        <v>7444.858404800593</v>
       </c>
       <c r="R3">
-        <v>23163.64856113439</v>
+        <v>67003.72564320534</v>
       </c>
       <c r="S3">
-        <v>0.04364626418650578</v>
+        <v>0.1077317895588173</v>
       </c>
       <c r="T3">
-        <v>0.04364626418650579</v>
+        <v>0.1077317895588173</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>56.05275600000001</v>
+        <v>162.139547</v>
       </c>
       <c r="H4">
-        <v>168.158268</v>
+        <v>486.418641</v>
       </c>
       <c r="I4">
-        <v>0.0661711278023414</v>
+        <v>0.1429713321294387</v>
       </c>
       <c r="J4">
-        <v>0.06617112780234141</v>
+        <v>0.1429713321294388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>13.064010314148</v>
+        <v>136.1914365028236</v>
       </c>
       <c r="R4">
-        <v>117.576092827332</v>
+        <v>1225.722928525413</v>
       </c>
       <c r="S4">
-        <v>0.0002215435619313136</v>
+        <v>0.001970775853517152</v>
       </c>
       <c r="T4">
-        <v>0.0002215435619313137</v>
+        <v>0.001970775853517152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.05275600000001</v>
+        <v>162.139547</v>
       </c>
       <c r="H5">
-        <v>168.158268</v>
+        <v>486.418641</v>
       </c>
       <c r="I5">
-        <v>0.0661711278023414</v>
+        <v>0.1429713321294387</v>
       </c>
       <c r="J5">
-        <v>0.06617112780234141</v>
+        <v>0.1429713321294388</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>1109.094937925508</v>
+        <v>1230.806111416894</v>
       </c>
       <c r="R5">
-        <v>9981.854441329575</v>
+        <v>11077.25500275205</v>
       </c>
       <c r="S5">
-        <v>0.01880837791454476</v>
+        <v>0.01781053953925705</v>
       </c>
       <c r="T5">
-        <v>0.01880837791454477</v>
+        <v>0.01781053953925705</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.05275600000001</v>
+        <v>162.139547</v>
       </c>
       <c r="H6">
-        <v>168.158268</v>
+        <v>486.418641</v>
       </c>
       <c r="I6">
-        <v>0.0661711278023414</v>
+        <v>0.1429713321294387</v>
       </c>
       <c r="J6">
-        <v>0.06617112780234141</v>
+        <v>0.1429713321294388</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>142.369329177</v>
+        <v>775.1011324329789</v>
       </c>
       <c r="R6">
-        <v>1281.323962593</v>
+        <v>6975.910191896811</v>
       </c>
       <c r="S6">
-        <v>0.002414343493091562</v>
+        <v>0.01121620151059237</v>
       </c>
       <c r="T6">
-        <v>0.002414343493091563</v>
+        <v>0.01121620151059237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.05275600000001</v>
+        <v>162.139547</v>
       </c>
       <c r="H7">
-        <v>168.158268</v>
+        <v>486.418641</v>
       </c>
       <c r="I7">
-        <v>0.0661711278023414</v>
+        <v>0.1429713321294387</v>
       </c>
       <c r="J7">
-        <v>0.06617112780234141</v>
+        <v>0.1429713321294388</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N7">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q7">
-        <v>24.560523991008</v>
+        <v>27.992906370909</v>
       </c>
       <c r="R7">
-        <v>221.044715919072</v>
+        <v>251.936157338181</v>
       </c>
       <c r="S7">
-        <v>0.0004165050269422003</v>
+        <v>0.0004050749838769056</v>
       </c>
       <c r="T7">
-        <v>0.0004165050269422003</v>
+        <v>0.0004050749838769056</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>714.01413</v>
       </c>
       <c r="I8">
-        <v>0.2809681665424123</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="J8">
-        <v>0.2809681665424124</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N8">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q8">
-        <v>166.27818256614</v>
+        <v>389.2202091494667</v>
       </c>
       <c r="R8">
-        <v>1496.50364309526</v>
+        <v>3502.9818823452</v>
       </c>
       <c r="S8">
-        <v>0.002819797286693307</v>
+        <v>0.005632261540003371</v>
       </c>
       <c r="T8">
-        <v>0.002819797286693308</v>
+        <v>0.00563226154000337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>714.01413</v>
       </c>
       <c r="I9">
-        <v>0.2809681665424123</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="J9">
-        <v>0.2809681665424124</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
         <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q9">
         <v>10928.31081873954</v>
       </c>
       <c r="R9">
-        <v>98354.79736865583</v>
+        <v>98354.79736865585</v>
       </c>
       <c r="S9">
-        <v>0.1853257037047865</v>
+        <v>0.1581395397122169</v>
       </c>
       <c r="T9">
-        <v>0.1853257037047865</v>
+        <v>0.1581395397122169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>714.01413</v>
       </c>
       <c r="I10">
-        <v>0.2809681665424123</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="J10">
-        <v>0.2809681665424124</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N10">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q10">
-        <v>55.47088507576334</v>
+        <v>199.9154675653433</v>
       </c>
       <c r="R10">
-        <v>499.23796568187</v>
+        <v>1799.23920808809</v>
       </c>
       <c r="S10">
-        <v>0.0009406925720089363</v>
+        <v>0.002892902713557923</v>
       </c>
       <c r="T10">
-        <v>0.0009406925720089364</v>
+        <v>0.002892902713557922</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>714.01413</v>
       </c>
       <c r="I11">
-        <v>0.2809681665424123</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="J11">
-        <v>0.2809681665424124</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N11">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q11">
-        <v>4709.310262343364</v>
+        <v>1806.700814416397</v>
       </c>
       <c r="R11">
-        <v>42383.79236109027</v>
+        <v>16260.30732974757</v>
       </c>
       <c r="S11">
-        <v>0.07986195239216483</v>
+        <v>0.02614409856458036</v>
       </c>
       <c r="T11">
-        <v>0.07986195239216484</v>
+        <v>0.02614409856458035</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>714.01413</v>
       </c>
       <c r="I12">
-        <v>0.2809681665424123</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="J12">
-        <v>0.2809681665424124</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N12">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q12">
-        <v>604.5121296741667</v>
+        <v>1137.77128195247</v>
       </c>
       <c r="R12">
-        <v>5440.6091670675</v>
+        <v>10239.94153757223</v>
       </c>
       <c r="S12">
-        <v>0.01025150525896789</v>
+        <v>0.01646426696770097</v>
       </c>
       <c r="T12">
-        <v>0.0102515052589679</v>
+        <v>0.01646426696770097</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>714.01413</v>
       </c>
       <c r="I13">
-        <v>0.2809681665424123</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="J13">
-        <v>0.2809681665424124</v>
+        <v>0.2098676792391727</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N13">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q13">
-        <v>104.28604777128</v>
+        <v>41.09079916737</v>
       </c>
       <c r="R13">
-        <v>938.57442994152</v>
+        <v>369.81719250633</v>
       </c>
       <c r="S13">
-        <v>0.00176851532779085</v>
+        <v>0.0005946097411131759</v>
       </c>
       <c r="T13">
-        <v>0.001768515327790851</v>
+        <v>0.0005946097411131758</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>126.0396663333333</v>
+        <v>164.2433473333333</v>
       </c>
       <c r="H14">
-        <v>378.118999</v>
+        <v>492.730042</v>
       </c>
       <c r="I14">
-        <v>0.1487917359336884</v>
+        <v>0.1448264201801721</v>
       </c>
       <c r="J14">
-        <v>0.1487917359336884</v>
+        <v>0.1448264201801722</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N14">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q14">
-        <v>88.055596249122</v>
+        <v>268.5948105837422</v>
       </c>
       <c r="R14">
-        <v>792.500366242098</v>
+        <v>2417.35329525368</v>
       </c>
       <c r="S14">
-        <v>0.001493274268154034</v>
+        <v>0.003886736058235773</v>
       </c>
       <c r="T14">
-        <v>0.001493274268154034</v>
+        <v>0.003886736058235773</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>126.0396663333333</v>
+        <v>164.2433473333333</v>
       </c>
       <c r="H15">
-        <v>378.118999</v>
+        <v>492.730042</v>
       </c>
       <c r="I15">
-        <v>0.1487917359336884</v>
+        <v>0.1448264201801721</v>
       </c>
       <c r="J15">
-        <v>0.1487917359336884</v>
+        <v>0.1448264201801722</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
         <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q15">
-        <v>5787.283155786656</v>
+        <v>7541.457265987981</v>
       </c>
       <c r="R15">
-        <v>52085.5484020799</v>
+        <v>67873.11539389183</v>
       </c>
       <c r="S15">
-        <v>0.09814255296855884</v>
+        <v>0.1091296359138737</v>
       </c>
       <c r="T15">
-        <v>0.09814255296855884</v>
+        <v>0.1091296359138737</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>126.0396663333333</v>
+        <v>164.2433473333333</v>
       </c>
       <c r="H16">
-        <v>378.118999</v>
+        <v>492.730042</v>
       </c>
       <c r="I16">
-        <v>0.1487917359336884</v>
+        <v>0.1448264201801721</v>
       </c>
       <c r="J16">
-        <v>0.1487917359336884</v>
+        <v>0.1448264201801722</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N16">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q16">
-        <v>29.37560288686678</v>
+        <v>137.9585537472784</v>
       </c>
       <c r="R16">
-        <v>264.380425981801</v>
+        <v>1241.626983725506</v>
       </c>
       <c r="S16">
-        <v>0.0004981606368136642</v>
+        <v>0.001996347152896412</v>
       </c>
       <c r="T16">
-        <v>0.0004981606368136642</v>
+        <v>0.001996347152896412</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>126.0396663333333</v>
+        <v>164.2433473333333</v>
       </c>
       <c r="H17">
-        <v>378.118999</v>
+        <v>492.730042</v>
       </c>
       <c r="I17">
-        <v>0.1487917359336884</v>
+        <v>0.1448264201801721</v>
       </c>
       <c r="J17">
-        <v>0.1487917359336884</v>
+        <v>0.1448264201801722</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N17">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q17">
-        <v>2493.89978091568</v>
+        <v>1246.776122159971</v>
       </c>
       <c r="R17">
-        <v>22445.09802824112</v>
+        <v>11220.98509943974</v>
       </c>
       <c r="S17">
-        <v>0.04229233040067571</v>
+        <v>0.01804163565191324</v>
       </c>
       <c r="T17">
-        <v>0.04229233040067571</v>
+        <v>0.01804163565191324</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>126.0396663333333</v>
+        <v>164.2433473333333</v>
       </c>
       <c r="H18">
-        <v>378.118999</v>
+        <v>492.730042</v>
       </c>
       <c r="I18">
-        <v>0.1487917359336884</v>
+        <v>0.1448264201801721</v>
       </c>
       <c r="J18">
-        <v>0.1487917359336884</v>
+        <v>0.1448264201801722</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N18">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q18">
-        <v>320.1302491811389</v>
+        <v>785.1582594630647</v>
       </c>
       <c r="R18">
-        <v>2881.17224263025</v>
+        <v>7066.424335167581</v>
       </c>
       <c r="S18">
-        <v>0.005428868623039962</v>
+        <v>0.01136173447224989</v>
       </c>
       <c r="T18">
-        <v>0.005428868623039962</v>
+        <v>0.01136173447224989</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>126.0396663333333</v>
+        <v>164.2433473333333</v>
       </c>
       <c r="H19">
-        <v>378.118999</v>
+        <v>492.730042</v>
       </c>
       <c r="I19">
-        <v>0.1487917359336884</v>
+        <v>0.1448264201801721</v>
       </c>
       <c r="J19">
-        <v>0.1487917359336884</v>
+        <v>0.1448264201801722</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N19">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q19">
-        <v>55.22654851794399</v>
+        <v>28.356121187058</v>
       </c>
       <c r="R19">
-        <v>497.0389366614959</v>
+        <v>255.205090683522</v>
       </c>
       <c r="S19">
-        <v>0.000936549036446146</v>
+        <v>0.0004103309310031501</v>
       </c>
       <c r="T19">
-        <v>0.000936549036446146</v>
+        <v>0.0004103309310031501</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>130.8644813333333</v>
+        <v>212.5229033333333</v>
       </c>
       <c r="H20">
-        <v>392.593444</v>
+        <v>637.56871</v>
       </c>
       <c r="I20">
-        <v>0.1544875031496242</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="J20">
-        <v>0.1544875031496243</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N20">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q20">
-        <v>91.42637605183199</v>
+        <v>347.5486215564889</v>
       </c>
       <c r="R20">
-        <v>822.8373844664881</v>
+        <v>3127.9375940084</v>
       </c>
       <c r="S20">
-        <v>0.001550437003487285</v>
+        <v>0.00502924742461688</v>
       </c>
       <c r="T20">
-        <v>0.001550437003487285</v>
+        <v>0.00502924742461688</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>130.8644813333333</v>
+        <v>212.5229033333333</v>
       </c>
       <c r="H21">
-        <v>392.593444</v>
+        <v>637.56871</v>
       </c>
       <c r="I21">
-        <v>0.1544875031496242</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="J21">
-        <v>0.1544875031496243</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
         <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q21">
-        <v>6008.821115951044</v>
+        <v>9758.278916949181</v>
       </c>
       <c r="R21">
-        <v>54079.3900435594</v>
+        <v>87824.51025254262</v>
       </c>
       <c r="S21">
-        <v>0.1018994628008071</v>
+        <v>0.1412084412591553</v>
       </c>
       <c r="T21">
-        <v>0.1018994628008072</v>
+        <v>0.1412084412591553</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>130.8644813333333</v>
+        <v>212.5229033333333</v>
       </c>
       <c r="H22">
-        <v>392.593444</v>
+        <v>637.56871</v>
       </c>
       <c r="I22">
-        <v>0.1544875031496242</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="J22">
-        <v>0.1544875031496243</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N22">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q22">
-        <v>30.50010482792844</v>
+        <v>178.5116588164477</v>
       </c>
       <c r="R22">
-        <v>274.500943451356</v>
+        <v>1606.60492934803</v>
       </c>
       <c r="S22">
-        <v>0.0005172302914932598</v>
+        <v>0.002583176121792749</v>
       </c>
       <c r="T22">
-        <v>0.0005172302914932598</v>
+        <v>0.002583176121792749</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>130.8644813333333</v>
+        <v>212.5229033333333</v>
       </c>
       <c r="H23">
-        <v>392.593444</v>
+        <v>637.56871</v>
       </c>
       <c r="I23">
-        <v>0.1544875031496242</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="J23">
-        <v>0.1544875031496243</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N23">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q23">
-        <v>2589.366592448142</v>
+        <v>1613.267664049466</v>
       </c>
       <c r="R23">
-        <v>23304.29933203328</v>
+        <v>14519.40897644519</v>
       </c>
       <c r="S23">
-        <v>0.04391128636936642</v>
+        <v>0.02334499906315908</v>
       </c>
       <c r="T23">
-        <v>0.04391128636936643</v>
+        <v>0.02334499906315908</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>130.8644813333333</v>
+        <v>212.5229033333333</v>
       </c>
       <c r="H24">
-        <v>392.593444</v>
+        <v>637.56871</v>
       </c>
       <c r="I24">
-        <v>0.1544875031496242</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="J24">
-        <v>0.1544875031496243</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N24">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q24">
-        <v>332.3848772132222</v>
+        <v>1015.956600900157</v>
       </c>
       <c r="R24">
-        <v>2991.463894919</v>
+        <v>9143.609408101411</v>
       </c>
       <c r="S24">
-        <v>0.005636686427763435</v>
+        <v>0.01470153181939512</v>
       </c>
       <c r="T24">
-        <v>0.005636686427763436</v>
+        <v>0.01470153181939511</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>130.8644813333333</v>
+        <v>212.5229033333333</v>
       </c>
       <c r="H25">
-        <v>392.593444</v>
+        <v>637.56871</v>
       </c>
       <c r="I25">
-        <v>0.1544875031496242</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="J25">
-        <v>0.1544875031496243</v>
+        <v>0.1873983439560406</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N25">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q25">
-        <v>57.34062805686398</v>
+        <v>36.69144169179</v>
       </c>
       <c r="R25">
-        <v>516.065652511776</v>
+        <v>330.22297522611</v>
       </c>
       <c r="S25">
-        <v>0.0009724002567066827</v>
+        <v>0.0005309482679214787</v>
       </c>
       <c r="T25">
-        <v>0.0009724002567066829</v>
+        <v>0.0005309482679214786</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>151.033905</v>
+        <v>203.7327576666667</v>
       </c>
       <c r="H26">
-        <v>453.101715</v>
+        <v>611.198273</v>
       </c>
       <c r="I26">
-        <v>0.1782978134070997</v>
+        <v>0.1796473735183648</v>
       </c>
       <c r="J26">
-        <v>0.1782978134070997</v>
+        <v>0.1796473735183648</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N26">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q26">
-        <v>105.51742118577</v>
+        <v>333.1736861409911</v>
       </c>
       <c r="R26">
-        <v>949.65679067193</v>
+        <v>2998.56317526892</v>
       </c>
       <c r="S26">
-        <v>0.001789397342252994</v>
+        <v>0.004821233056458392</v>
       </c>
       <c r="T26">
-        <v>0.001789397342252995</v>
+        <v>0.004821233056458392</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>151.033905</v>
+        <v>203.7327576666667</v>
       </c>
       <c r="H27">
-        <v>453.101715</v>
+        <v>611.198273</v>
       </c>
       <c r="I27">
-        <v>0.1782978134070997</v>
+        <v>0.1796473735183648</v>
       </c>
       <c r="J27">
-        <v>0.1782978134070997</v>
+        <v>0.1796473735183648</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
         <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q27">
-        <v>6934.927707976783</v>
+        <v>9354.667391835539</v>
       </c>
       <c r="R27">
-        <v>62414.34937179105</v>
+        <v>84192.00652651985</v>
       </c>
       <c r="S27">
-        <v>0.1176046672664876</v>
+        <v>0.1353679283141384</v>
       </c>
       <c r="T27">
-        <v>0.1176046672664876</v>
+        <v>0.1353679283141384</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>151.033905</v>
+        <v>203.7327576666667</v>
       </c>
       <c r="H28">
-        <v>453.101715</v>
+        <v>611.198273</v>
       </c>
       <c r="I28">
-        <v>0.1782978134070997</v>
+        <v>0.1796473735183648</v>
       </c>
       <c r="J28">
-        <v>0.1782978134070997</v>
+        <v>0.1796473735183648</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N28">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q28">
-        <v>35.200918447365</v>
+        <v>171.1282499716432</v>
       </c>
       <c r="R28">
-        <v>316.808266026285</v>
+        <v>1540.154249744789</v>
       </c>
       <c r="S28">
-        <v>0.0005969481551646744</v>
+        <v>0.00247633354606528</v>
       </c>
       <c r="T28">
-        <v>0.0005969481551646744</v>
+        <v>0.00247633354606528</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>151.033905</v>
+        <v>203.7327576666667</v>
       </c>
       <c r="H29">
-        <v>453.101715</v>
+        <v>611.198273</v>
       </c>
       <c r="I29">
-        <v>0.1782978134070997</v>
+        <v>0.1796473735183648</v>
       </c>
       <c r="J29">
-        <v>0.1782978134070997</v>
+        <v>0.1796473735183648</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N29">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q29">
-        <v>2988.451441899165</v>
+        <v>1546.541407519477</v>
       </c>
       <c r="R29">
-        <v>26896.06297709249</v>
+        <v>13918.8726676753</v>
       </c>
       <c r="S29">
-        <v>0.05067909173189364</v>
+        <v>0.02237942810993571</v>
       </c>
       <c r="T29">
-        <v>0.05067909173189365</v>
+        <v>0.02237942810993571</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>151.033905</v>
+        <v>203.7327576666667</v>
       </c>
       <c r="H30">
-        <v>453.101715</v>
+        <v>611.198273</v>
       </c>
       <c r="I30">
-        <v>0.1782978134070997</v>
+        <v>0.1796473735183648</v>
       </c>
       <c r="J30">
-        <v>0.1782978134070997</v>
+        <v>0.1796473735183648</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N30">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q30">
-        <v>383.6135325412499</v>
+        <v>973.9356875169203</v>
       </c>
       <c r="R30">
-        <v>3452.52179287125</v>
+        <v>8765.421187652282</v>
       </c>
       <c r="S30">
-        <v>0.00650543794444218</v>
+        <v>0.01409346273983371</v>
       </c>
       <c r="T30">
-        <v>0.006505437944442181</v>
+        <v>0.01409346273983371</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>151.033905</v>
+        <v>203.7327576666667</v>
       </c>
       <c r="H31">
-        <v>453.101715</v>
+        <v>611.198273</v>
       </c>
       <c r="I31">
-        <v>0.1782978134070997</v>
+        <v>0.1796473735183648</v>
       </c>
       <c r="J31">
-        <v>0.1782978134070997</v>
+        <v>0.1796473735183648</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N31">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q31">
-        <v>66.17822408603998</v>
+        <v>35.173849412877</v>
       </c>
       <c r="R31">
-        <v>595.6040167743599</v>
+        <v>316.564644715893</v>
       </c>
       <c r="S31">
-        <v>0.001122270966858627</v>
+        <v>0.0005089877519333548</v>
       </c>
       <c r="T31">
-        <v>0.001122270966858627</v>
+        <v>0.0005089877519333548</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>145.0922953333333</v>
+        <v>153.427073</v>
       </c>
       <c r="H32">
-        <v>435.276886</v>
+        <v>460.281219</v>
       </c>
       <c r="I32">
-        <v>0.1712836531648339</v>
+        <v>0.135288850976811</v>
       </c>
       <c r="J32">
-        <v>0.1712836531648339</v>
+        <v>0.135288850976811</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N32">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O32">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P32">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q32">
-        <v>101.366410657908</v>
+        <v>250.9064524069733</v>
       </c>
       <c r="R32">
-        <v>912.297695921172</v>
+        <v>2258.15807166276</v>
       </c>
       <c r="S32">
-        <v>0.001719003210907202</v>
+        <v>0.003630774376075118</v>
       </c>
       <c r="T32">
-        <v>0.001719003210907202</v>
+        <v>0.003630774376075118</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>145.0922953333333</v>
+        <v>153.427073</v>
       </c>
       <c r="H33">
-        <v>435.276886</v>
+        <v>460.281219</v>
       </c>
       <c r="I33">
-        <v>0.1712836531648339</v>
+        <v>0.135288850976811</v>
       </c>
       <c r="J33">
-        <v>0.1712836531648339</v>
+        <v>0.135288850976811</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N33">
         <v>137.749091</v>
       </c>
       <c r="O33">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P33">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q33">
-        <v>6662.110597756736</v>
+        <v>7044.813280180215</v>
       </c>
       <c r="R33">
-        <v>59958.99537981062</v>
+        <v>63403.31952162193</v>
       </c>
       <c r="S33">
-        <v>0.1129781496122187</v>
+        <v>0.1019428846748986</v>
       </c>
       <c r="T33">
-        <v>0.1129781496122187</v>
+        <v>0.1019428846748986</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>145.0922953333333</v>
+        <v>153.427073</v>
       </c>
       <c r="H34">
-        <v>435.276886</v>
+        <v>460.281219</v>
       </c>
       <c r="I34">
-        <v>0.1712836531648339</v>
+        <v>0.135288850976811</v>
       </c>
       <c r="J34">
-        <v>0.1712836531648339</v>
+        <v>0.135288850976811</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N34">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O34">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P34">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q34">
-        <v>33.81612926825711</v>
+        <v>128.8732690877296</v>
       </c>
       <c r="R34">
-        <v>304.345163414314</v>
+        <v>1159.859421789567</v>
       </c>
       <c r="S34">
-        <v>0.0005734644683115453</v>
+        <v>0.001864877362363751</v>
       </c>
       <c r="T34">
-        <v>0.0005734644683115453</v>
+        <v>0.001864877362363751</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>145.0922953333333</v>
+        <v>153.427073</v>
       </c>
       <c r="H35">
-        <v>435.276886</v>
+        <v>460.281219</v>
       </c>
       <c r="I35">
-        <v>0.1712836531648339</v>
+        <v>0.135288850976811</v>
       </c>
       <c r="J35">
-        <v>0.1712836531648339</v>
+        <v>0.135288850976811</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N35">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O35">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P35">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q35">
-        <v>2870.887031606311</v>
+        <v>1164.669462812832</v>
       </c>
       <c r="R35">
-        <v>25837.9832844568</v>
+        <v>10482.02516531549</v>
       </c>
       <c r="S35">
-        <v>0.0486853977905756</v>
+        <v>0.01685350058403073</v>
       </c>
       <c r="T35">
-        <v>0.0486853977905756</v>
+        <v>0.01685350058403073</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>145.0922953333333</v>
+        <v>153.427073</v>
       </c>
       <c r="H36">
-        <v>435.276886</v>
+        <v>460.281219</v>
       </c>
       <c r="I36">
-        <v>0.1712836531648339</v>
+        <v>0.135288850976811</v>
       </c>
       <c r="J36">
-        <v>0.1712836531648339</v>
+        <v>0.135288850976811</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N36">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O36">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P36">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q36">
-        <v>368.5223391220555</v>
+        <v>733.451525112361</v>
       </c>
       <c r="R36">
-        <v>3316.7010520985</v>
+        <v>6601.063726011249</v>
       </c>
       <c r="S36">
-        <v>0.006249516779081346</v>
+        <v>0.01061350546358913</v>
       </c>
       <c r="T36">
-        <v>0.006249516779081346</v>
+        <v>0.01061350546358913</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>145.0922953333333</v>
+        <v>153.427073</v>
       </c>
       <c r="H37">
-        <v>435.276886</v>
+        <v>460.281219</v>
       </c>
       <c r="I37">
-        <v>0.1712836531648339</v>
+        <v>0.135288850976811</v>
       </c>
       <c r="J37">
-        <v>0.1712836531648339</v>
+        <v>0.135288850976811</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N37">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O37">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P37">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q37">
-        <v>63.574800861616</v>
+        <v>26.488723872231</v>
       </c>
       <c r="R37">
-        <v>572.1732077545439</v>
+        <v>238.398514850079</v>
       </c>
       <c r="S37">
-        <v>0.001078121303739564</v>
+        <v>0.0003833085158536666</v>
       </c>
       <c r="T37">
-        <v>0.001078121303739564</v>
+        <v>0.0003833085158536667</v>
       </c>
     </row>
   </sheetData>
